--- a/ltb/case/pjm5_htb.xlsx
+++ b/ltb/case/pjm5_htb.xlsx
@@ -11,10 +11,30 @@
     <sheet name="Area" sheetId="6" r:id="rId6"/>
     <sheet name="GENCLS" sheetId="7" r:id="rId7"/>
     <sheet name="TG2" sheetId="8" r:id="rId8"/>
-    <sheet name="Toggler" sheetId="9" r:id="rId9"/>
-    <sheet name="BusFreq" sheetId="10" r:id="rId10"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,72 +650,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>uid</v>
-      </c>
-      <c r="B1" t="str">
-        <v>idx</v>
-      </c>
-      <c r="C1" t="str">
-        <v>u</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>bus</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Tf</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Tw</v>
-      </c>
-      <c r="H1" t="str">
-        <v>fn</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>BusFreq_1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>BusFreq_1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>2</v>
-      </c>
-      <c r="F2" t="str">
-        <v>0.02</v>
-      </c>
-      <c r="G2" t="str">
-        <v>0.02</v>
-      </c>
-      <c r="H2" t="str">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
@@ -1892,10 +1846,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <v>0</v>
+        <v>GENCLS_0</v>
       </c>
       <c r="C2" t="str">
         <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>GENCLS_0</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -1945,10 +1902,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>2</v>
+        <v>GENCLS_2</v>
       </c>
       <c r="C3" t="str">
         <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>GENCLS_2</v>
       </c>
       <c r="E3" t="str">
         <v>2</v>
@@ -1998,10 +1958,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="str">
-        <v>3</v>
+        <v>GENCLS_3</v>
       </c>
       <c r="C4" t="str">
         <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <v>GENCLS_3</v>
       </c>
       <c r="E4" t="str">
         <v>3</v>
@@ -2051,10 +2014,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="str">
-        <v>4</v>
+        <v>GENCLS_4</v>
       </c>
       <c r="C5" t="str">
         <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <v>GENCLS_4</v>
       </c>
       <c r="E5" t="str">
         <v>4</v>
@@ -2168,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>GENCLS_0</v>
       </c>
       <c r="F2" t="str">
         <v>0.05</v>
@@ -2209,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>2</v>
+        <v>GENCLS_2</v>
       </c>
       <c r="F3" t="str">
         <v>0.05</v>
@@ -2250,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v>3</v>
+        <v>GENCLS_3</v>
       </c>
       <c r="F4" t="str">
         <v>0.05</v>
@@ -2291,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>4</v>
+        <v>GENCLS_4</v>
       </c>
       <c r="F5" t="str">
         <v>0.05</v>
@@ -2326,81 +2292,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:N5"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>uid</v>
-      </c>
-      <c r="B1" t="str">
-        <v>idx</v>
-      </c>
-      <c r="C1" t="str">
-        <v>u</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>model</v>
-      </c>
-      <c r="F1" t="str">
-        <v>dev</v>
-      </c>
-      <c r="G1" t="str">
-        <v>t</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>0</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Line</v>
-      </c>
-      <c r="F2" t="str">
-        <v>0</v>
-      </c>
-      <c r="G2" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
-        <v>1</v>
-      </c>
-      <c r="C3" t="str">
-        <v>1</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Line</v>
-      </c>
-      <c r="F3" t="str">
-        <v>0</v>
-      </c>
-      <c r="G3" t="str">
-        <v>5.02</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
-  </ignoredErrors>
-</worksheet>
 </file>